--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\IdeaProjects\EU7TestNGSelenium\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4813,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J296" sqref="J296"/>
+    <sheetView topLeftCell="A274" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18134,10 +18134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18174,174 +18174,6 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C13" t="s">
-        <v>692</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1381</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
